--- a/tests/marc.xlsx
+++ b/tests/marc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\dlx\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB91CAD-4C51-4AB9-B728-76356E51184F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB246020-241C-4154-82F5-3A19923CF47D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19035" yWindow="1875" windowWidth="18600" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19755" yWindow="1815" windowWidth="18600" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,9 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
